--- a/medicine/Hématologie/Aplasie_médullaire/Aplasie_médullaire.xlsx
+++ b/medicine/Hématologie/Aplasie_médullaire/Aplasie_médullaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aplasie_m%C3%A9dullaire</t>
+          <t>Aplasie_médullaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aplasie médullaire est l'insuffisance de production par la moelle osseuse des différentes lignées sanguines, secondaire à la raréfaction plus ou moins durable des cellules souches hématopoïétiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aplasie médullaire est l'insuffisance de production par la moelle osseuse des différentes lignées sanguines, secondaire à la raréfaction plus ou moins durable des cellules souches hématopoïétiques.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aplasie_m%C3%A9dullaire</t>
+          <t>Aplasie_médullaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une maladie rare dont l'incidence est de 2 cas/1 000 000 personnes/an, en Europe et aux États-Unis. La prévalence est de 1/250 000 personnes[2]. Elle est plus répandue en Asie où l'incidence atteint 7,4 cas/1 000 000 d'habitants en Chine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une maladie rare dont l'incidence est de 2 cas/1 000 000 personnes/an, en Europe et aux États-Unis. La prévalence est de 1/250 000 personnes. Elle est plus répandue en Asie où l'incidence atteint 7,4 cas/1 000 000 d'habitants en Chine.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aplasie_m%C3%A9dullaire</t>
+          <t>Aplasie_médullaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le diagnostic est suspecté par l'examen clinique puis confirmé par les examens complémentaires :
 présentation clinique pouvant associer un syndrome anémique, infectieux ou hémorragiques selon les lignées atteintes, sans syndrome tumoral (pas d'adénopathie, splénomégalie ni hépatomégalie) ;
 l'hémogramme montre une pancytopénie avec atteinte plus ou moins sévère de toutes les lignées cellulaires, sans cellule anormale à l'analyse du frottis sanguin. L'installation des cytopénies peut être brutale ou plus progressive sur quelques mois ;
 le myélogramme montre une moelle pauvre ou désertique, sans signes de myélodysplasie ;
 le caryotype médullaire pour éliminer un syndrome myélodysplasique primitif ou une évolution clonale de l'aplasie médullaire ;
-la biopsie ostéo-médullaire est l'examen indispensable au diagnostic et montre une disparition complète ou partielle du tissu hématopoïétique (richesse &lt;30 % pour l'âge), avec de rares zones cellulaires entre les adipocytes. Elle confirme l'absence de prolifération cellulaire anormale ni de myélofibrose[3].</t>
+la biopsie ostéo-médullaire est l'examen indispensable au diagnostic et montre une disparition complète ou partielle du tissu hématopoïétique (richesse &lt;30 % pour l'âge), avec de rares zones cellulaires entre les adipocytes. Elle confirme l'absence de prolifération cellulaire anormale ni de myélofibrose.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aplasie_m%C3%A9dullaire</t>
+          <t>Aplasie_médullaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,63 +593,215 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chez l'adulte, l'aplasie médullaire est très majoritairement acquise (&gt;95 %) et beaucoup plus rarement de nature constitutionnelle. Cependant, on peut évoquer une cause constitutionnelle à des âges avancés, jusqu'à 40 ans.
-Aplasies médullaires constitutionnelles (20 %)
-Anémie de Fanconi
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'adulte, l'aplasie médullaire est très majoritairement acquise (&gt;95 %) et beaucoup plus rarement de nature constitutionnelle. Cependant, on peut évoquer une cause constitutionnelle à des âges avancés, jusqu'à 40 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aplasie_médullaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aplasie_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aplasies médullaires constitutionnelles (20 %)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anémie de Fanconi
 Dyskératose congénitale
 Syndrome de Shwachman-Diamond
 Syndrome GATA2
 Amégacaryocytose congénitale
-Anémie de Blackfan-Diamond
-Aplasies médullaires acquises (80 %)
-Toxiques ou médicamenteuses (&lt;5 %)
-Antibiotiques : sulfamides (cotrimoxazole[4]), linézolide
+Anémie de Blackfan-Diamond</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aplasie_médullaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aplasie_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aplasies médullaires acquises (80 %)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Toxiques ou médicamenteuses (&lt;5 %)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Antibiotiques : sulfamides (cotrimoxazole), linézolide
 Anti-inflammatoires : AINS, sulfasalazine
 Antithyroïdiens : carbimazole, thiouracile
 Psychotropes : phénothiazines, dosulépine
-Autres : chloroquine, mebendazole, allopurinol, diurétique thiazidique, colchicine[5], sulfamides hypoglycémiants
+Autres : chloroquine, mebendazole, allopurinol, diurétique thiazidique, colchicine, sulfamides hypoglycémiants
 Non commercialisés en France : chloramphénicol, thiamphénicol, sels d'or
 Toxiques : dérivés du benzène, organochlorés, pesticides ou insecticides, chimiothérapies anti-mitotiques
 Drogues : MDMA (ecstasy)
-Radiations
-Infectieuses
-Parvovirus B19, qui est responsable d'érythroblastopénies aiguës transitoires mais peut parfois provoquer de véritables aplasies.
-Aplasie médullaire immunologiques
-Aplasie médullaire idiopathique
-Syndrome hépatite-aplasie : aplasie survenant 2-3 mois (extrême 14-225 jours), après une hépatite aiguë non virale le plus souvent bénigne et de résolution spontanée[6]. Parfois un tableau sévère entraîne une greffe hépatique, l'aplasie médullaire survient alors secondairement à la transplantation.
+Radiations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aplasie_médullaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aplasie_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aplasies médullaires acquises (80 %)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Infectieuses</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Parvovirus B19, qui est responsable d'érythroblastopénies aiguës transitoires mais peut parfois provoquer de véritables aplasies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aplasie_médullaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aplasie_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aplasies médullaires acquises (80 %)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Aplasie médullaire immunologiques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Aplasie médullaire idiopathique
+Syndrome hépatite-aplasie : aplasie survenant 2-3 mois (extrême 14-225 jours), après une hépatite aiguë non virale le plus souvent bénigne et de résolution spontanée. Parfois un tableau sévère entraîne une greffe hépatique, l'aplasie médullaire survient alors secondairement à la transplantation.
 HPN (Hémoglobinurie paroxystique nocturne)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aplasie_m%C3%A9dullaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aplasie_médullaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aplasie_m%C3%A9dullaire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'indication du traitement dépend de la sévérité : une aplasie médullaire sévère ou une forme modérée nécessitant des transfusions répétées est une indication à un traitement spécifique[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'indication du traitement dépend de la sévérité : une aplasie médullaire sévère ou une forme modérée nécessitant des transfusions répétées est une indication à un traitement spécifique.
 Les traitements disponibles sont : 
 l'allogreffe de cellules souches hématopoïétiques ;
 le sérum anti-lymphocytaire (de cheval en ATU ou de lapin) associé à la ciclosporine ;
